--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>79.7933454846692</v>
+        <v>87.15864933333334</v>
       </c>
       <c r="H2">
-        <v>79.7933454846692</v>
+        <v>261.475948</v>
       </c>
       <c r="I2">
-        <v>0.425280250777281</v>
+        <v>0.4467028873927717</v>
       </c>
       <c r="J2">
-        <v>0.425280250777281</v>
+        <v>0.4467028873927717</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.40218733313843</v>
+        <v>93.08600066666666</v>
       </c>
       <c r="N2">
-        <v>0.40218733313843</v>
+        <v>279.258002</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9956622990949658</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.995662299094966</v>
       </c>
       <c r="Q2">
-        <v>32.09187282267249</v>
+        <v>8113.250089948434</v>
       </c>
       <c r="R2">
-        <v>32.09187282267249</v>
+        <v>73019.25080953589</v>
       </c>
       <c r="S2">
-        <v>0.425280250777281</v>
+        <v>0.4447652238738467</v>
       </c>
       <c r="T2">
-        <v>0.425280250777281</v>
+        <v>0.4447652238738468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.9697966899442</v>
+        <v>87.15864933333334</v>
       </c>
       <c r="H3">
-        <v>71.9697966899442</v>
+        <v>261.475948</v>
       </c>
       <c r="I3">
-        <v>0.3835825280764801</v>
+        <v>0.4467028873927717</v>
       </c>
       <c r="J3">
-        <v>0.3835825280764801</v>
+        <v>0.4467028873927717</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.40218733313843</v>
+        <v>0.4055383333333333</v>
       </c>
       <c r="N3">
-        <v>0.40218733313843</v>
+        <v>1.216615</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.004337700905034127</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.004337700905034127</v>
       </c>
       <c r="Q3">
-        <v>28.94534059724367</v>
+        <v>35.34617338622445</v>
       </c>
       <c r="R3">
-        <v>28.94534059724367</v>
+        <v>318.11556047602</v>
       </c>
       <c r="S3">
-        <v>0.3835825280764801</v>
+        <v>0.001937663518924983</v>
       </c>
       <c r="T3">
-        <v>0.3835825280764801</v>
+        <v>0.001937663518924984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>72.00815333333334</v>
+      </c>
+      <c r="H4">
+        <v>216.02446</v>
+      </c>
+      <c r="I4">
+        <v>0.369054021096672</v>
+      </c>
+      <c r="J4">
+        <v>0.369054021096672</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>93.08600066666666</v>
+      </c>
+      <c r="N4">
+        <v>279.258002</v>
+      </c>
+      <c r="O4">
+        <v>0.9956622990949658</v>
+      </c>
+      <c r="P4">
+        <v>0.995662299094966</v>
+      </c>
+      <c r="Q4">
+        <v>6702.951009192103</v>
+      </c>
+      <c r="R4">
+        <v>60326.55908272892</v>
+      </c>
+      <c r="S4">
+        <v>0.3674531751353545</v>
+      </c>
+      <c r="T4">
+        <v>0.3674531751353545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>35.8621833344635</v>
-      </c>
-      <c r="H4">
-        <v>35.8621833344635</v>
-      </c>
-      <c r="I4">
-        <v>0.191137221146239</v>
-      </c>
-      <c r="J4">
-        <v>0.191137221146239</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.40218733313843</v>
-      </c>
-      <c r="N4">
-        <v>0.40218733313843</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>14.42331587580933</v>
-      </c>
-      <c r="R4">
-        <v>14.42331587580933</v>
-      </c>
-      <c r="S4">
-        <v>0.191137221146239</v>
-      </c>
-      <c r="T4">
-        <v>0.191137221146239</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>72.00815333333334</v>
+      </c>
+      <c r="H5">
+        <v>216.02446</v>
+      </c>
+      <c r="I5">
+        <v>0.369054021096672</v>
+      </c>
+      <c r="J5">
+        <v>0.369054021096672</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4055383333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.216615</v>
+      </c>
+      <c r="O5">
+        <v>0.004337700905034127</v>
+      </c>
+      <c r="P5">
+        <v>0.004337700905034127</v>
+      </c>
+      <c r="Q5">
+        <v>29.20206648921111</v>
+      </c>
+      <c r="R5">
+        <v>262.8185984029</v>
+      </c>
+      <c r="S5">
+        <v>0.001600845961317518</v>
+      </c>
+      <c r="T5">
+        <v>0.001600845961317518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>35.94867966666667</v>
+      </c>
+      <c r="H6">
+        <v>107.846039</v>
+      </c>
+      <c r="I6">
+        <v>0.1842430915105563</v>
+      </c>
+      <c r="J6">
+        <v>0.1842430915105563</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>93.08600066666666</v>
+      </c>
+      <c r="N6">
+        <v>279.258002</v>
+      </c>
+      <c r="O6">
+        <v>0.9956622990949658</v>
+      </c>
+      <c r="P6">
+        <v>0.995662299094966</v>
+      </c>
+      <c r="Q6">
+        <v>3346.31881941712</v>
+      </c>
+      <c r="R6">
+        <v>30116.86937475408</v>
+      </c>
+      <c r="S6">
+        <v>0.1834439000857647</v>
+      </c>
+      <c r="T6">
+        <v>0.1834439000857647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>35.94867966666667</v>
+      </c>
+      <c r="H7">
+        <v>107.846039</v>
+      </c>
+      <c r="I7">
+        <v>0.1842430915105563</v>
+      </c>
+      <c r="J7">
+        <v>0.1842430915105563</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4055383333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.216615</v>
+      </c>
+      <c r="O7">
+        <v>0.004337700905034127</v>
+      </c>
+      <c r="P7">
+        <v>0.004337700905034127</v>
+      </c>
+      <c r="Q7">
+        <v>14.57856763755389</v>
+      </c>
+      <c r="R7">
+        <v>131.207108737985</v>
+      </c>
+      <c r="S7">
+        <v>0.0007991914247916256</v>
+      </c>
+      <c r="T7">
+        <v>0.0007991914247916257</v>
       </c>
     </row>
   </sheetData>
